--- a/MAR Свод Лота № 105 874 ed3.xlsx
+++ b/MAR Свод Лота № 105 874 ed3.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="3" r:id="rId3"/>
     <sheet name="Лист3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr refMode="R1C1"/>
+  <calcPr refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>N</t>
   </si>
@@ -86,25 +86,51 @@
         <color rgb="FF002060"/>
         <sz val="24"/>
         <rFont val="Book Antiqua"/>
-        <charset val="204"/>
+        <charset val="1"/>
         <b/>
       </rPr>
       <t>OFFERED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
         <color rgb="FF002060"/>
         <sz val="10"/>
         <rFont val="Book Antiqua"/>
-        <charset val="204"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ПРЕДЛАГАЕМЫЙ Товар</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QTY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
-ПРЕДЛАГАЕМЫЙ Товар</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">QTY
-Кол-во по заявке</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Кол-во по заявке</t>
+    </r>
   </si>
   <si>
     <t>priice</t>
@@ -113,14 +139,82 @@
     <t>CF</t>
   </si>
   <si>
-    <t xml:space="preserve">Цена за 
-шт без 
-НДС, USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цена за 
-сумм без 
-НДС, USD</t>
+    <r>
+      <t xml:space="preserve">Цена за </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">шт без </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t>НДС, USD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Цена за </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">сумм без </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t>НДС, USD</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">LEAD TIME </t>
@@ -173,59 +267,115 @@
   <si>
     <r>
       <rPr>
+        <color rgb="FF000000"/>
         <sz val="12"/>
         <rFont val="Arial CYR"/>
-        <charset val="204"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Исх. </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF000000"/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
+        <charset val="1"/>
       </rPr>
       <t>№02/1024</t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF000000"/>
         <sz val="12"/>
         <rFont val="MICROSOFT SANS SERIF"/>
-        <charset val="204"/>
+        <charset val="1"/>
       </rPr>
       <t>‐</t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF000000"/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF000000"/>
         <sz val="12"/>
         <rFont val="Arial CYR"/>
-        <charset val="204"/>
-      </rPr>
-      <t>от 02.10.2024г [105 874]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+        <charset val="1"/>
+      </rPr>
+      <t>от 0</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <rFont val="Arial CYR"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.10.2024г [105 874]</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>-ed2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF333333"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Телефон-IP SIP-T54W</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF333333"/>
+        <sz val="9"/>
+        <rFont val="Arial CYR"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Наушники с микрофоном WH62 MONO UC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">45-95 </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF000000"/>
         <sz val="8"/>
         <rFont val="Arial CYR"/>
-        <charset val="204"/>
+        <charset val="1"/>
       </rPr>
       <t>дней</t>
     </r>
@@ -233,117 +383,156 @@
   <si>
     <r>
       <rPr>
-        <color rgb="FF000000"/>
-        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <sz val="9"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">45-95 </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-        <sz val="8"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Модуль расширения EXP50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF333333"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">IP </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF333333"/>
+        <sz val="9"/>
         <rFont val="Arial CYR"/>
-        <charset val="204"/>
-      </rPr>
-      <t>дней</t>
-    </r>
-  </si>
-  <si>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">телефон SIP-T58W </t>
+    </r>
     <r>
       <rPr>
         <color rgb="FF333333"/>
-        <sz val="8"/>
+        <sz val="9"/>
         <rFont val="Arial"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">IP </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF333333"/>
-        <sz val="8"/>
+      <t>with camera</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Grandstream</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <sz val="9"/>
         <rFont val="Arial CYR"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">телефон SIP-T58W </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF333333"/>
-        <sz val="8"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <sz val="9"/>
         <rFont val="Arial"/>
         <charset val="1"/>
       </rPr>
-      <t>with camera</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
+      <t>UCM6308:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <sz val="9"/>
         <rFont val="Arial"/>
         <charset val="1"/>
       </rPr>
-      <t>Grandstream</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial CYR"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
+      <t>Support Max 3000 SIP Users ,Max 450 Concurrent calls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <sz val="9"/>
         <rFont val="Arial"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">UCM6308:
+      <t>Max 300 concurrent SRTP calls ,200 SIP trunk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <sz val="9"/>
         <rFont val="Arial"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Support Max 3000 SIP Users ,Max 450 Concurrent calls
+      <t>Support 10 Video Conference rooms and up to 80 parties with 1080p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <sz val="9"/>
         <rFont val="Arial"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Max 300 concurrent SRTP calls ,200 SIP trunk
+      <t>Voice Conference: Up to 300 parties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Support 10 Video Conference rooms and up to 80 parties with 1080p
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Voice Conference: Up to 300 parties
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <sz val="9"/>
         <rFont val="Arial"/>
         <charset val="1"/>
       </rPr>
@@ -355,17 +544,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt formatCode="0.000" numFmtId="164"/>
-    <numFmt formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-" numFmtId="165"/>
-    <numFmt formatCode="#,##0\ _₽;[Red]#,##0\ _₽" numFmtId="166"/>
-    <numFmt formatCode="0.00;[Red]0.00" numFmtId="167"/>
-    <numFmt formatCode="#,##0.00\ _₽;[Red]#,##0.00\ _₽" numFmtId="168"/>
+  <numFmts count="7">
+    <numFmt formatCode="General" numFmtId="164"/>
+    <numFmt formatCode="0" numFmtId="165"/>
+    <numFmt formatCode="0.000" numFmtId="166"/>
+    <numFmt formatCode="_-* #,##0 _₽_-;-* #,##0 _₽_-;_-* - _₽_-;_-@_-" numFmtId="167"/>
+    <numFmt formatCode="#,##0 _₽;[red]#,##0 _₽" numFmtId="168"/>
+    <numFmt formatCode="0.00;[red]0.00" numFmtId="169"/>
+    <numFmt formatCode="#,##0.00 _₽;[red]#,##0.00 _₽" numFmtId="170"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <charset val="1"/>
     </font>
     <font>
@@ -377,7 +568,7 @@
       <color rgb="FF333333"/>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <color rgb="FF333333"/>
@@ -388,29 +579,24 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <color rgb="FF002060"/>
       <sz val="10"/>
       <name val="Book Antiqua"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <color rgb="FF4D4D4D"/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <color rgb="FF1F497D"/>
@@ -422,17 +608,23 @@
       <color rgb="FFFF0000"/>
       <sz val="8"/>
       <name val="Arial"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <color rgb="FF000000"/>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <color rgb="FF333333"/>
-      <sz val="8"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <color rgb="FF333333"/>
+      <sz val="9"/>
       <name val="Arial CYR"/>
       <charset val="1"/>
     </font>
@@ -440,17 +632,11 @@
       <color rgb="FF000000"/>
       <sz val="8"/>
       <name val="Arial"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial CYR"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <sz val="8"/>
-      <name val="Arial"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -492,12 +678,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
       <diagonal/>
     </border>
     <border>
@@ -519,7 +712,7 @@
       <left style="thin">
         <color rgb="FF969696"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color rgb="FF969696"/>
       </top>
@@ -529,10 +722,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,7 +755,7 @@
       <left style="thin">
         <color rgb="FFA0A0A0"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color rgb="FFA0A0A0"/>
       </top>
@@ -573,39 +774,49 @@
       <top style="thin">
         <color rgb="FF969696"/>
       </top>
-      <bottom/>
+      <bottom style="none"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF969696"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color rgb="FF969696"/>
       </top>
-      <bottom/>
+      <bottom style="none"/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF969696"/>
       </left>
-      <right style="thin"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF969696"/>
       </top>
@@ -615,17 +826,21 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
+      <left style="none"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
       <diagonal/>
     </border>
     <border>
@@ -638,61 +853,63 @@
       <top style="thin">
         <color rgb="FF969696"/>
       </top>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF969696"/>
       </left>
-      <right style="thin"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF969696"/>
       </top>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <left style="none"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="79">
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="2" fillId="2" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="2" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="2" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="3" numFmtId="1" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="2" fillId="2" fontId="3" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -700,295 +917,291 @@
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="2" fontId="3" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="2" fontId="3" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="167" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="168" xfId="0">
       <alignment horizontal="right" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="169" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="169" xfId="0">
       <alignment horizontal="right" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="170" xfId="0">
       <alignment horizontal="right" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="2" fillId="2" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="2" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="2" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="2" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="5" fillId="3" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="2" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="6" fillId="4" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="169" xfId="0">
       <alignment horizontal="left" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="4" fontId="7" numFmtId="170" xfId="0">
+      <alignment horizontal="general" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="4" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="2" fillId="2" fontId="3" numFmtId="165" xfId="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="2" fontId="3" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="2" fontId="3" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="5" fontId="3" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="2" fontId="3" numFmtId="167" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="6" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="170" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="0" fontId="1" numFmtId="170" xfId="0">
+      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="7" fillId="2" fontId="3" numFmtId="165" xfId="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="8" fillId="2" fontId="3" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="9" fillId="2" fontId="3" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="9" fillId="2" fontId="3" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="9" fillId="5" fontId="8" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="9" fillId="2" fontId="3" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="9" fillId="2" fontId="3" numFmtId="167" xfId="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="170" xfId="0">
+      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="170" xfId="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="0" fontId="9" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="3" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="5" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="0" fontId="1" numFmtId="167" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="0" fontId="1" numFmtId="170" xfId="0">
+      <alignment horizontal="right" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="0" fontId="1" numFmtId="170" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="3" fontId="1" numFmtId="170" xfId="0">
+      <alignment horizontal="right" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="10" fillId="0" fontId="10" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="11" fillId="2" fontId="2" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="12" fillId="0" fontId="1" numFmtId="169" xfId="0">
       <alignment horizontal="right" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="4" fontId="8" numFmtId="168" xfId="0">
-      <alignment horizontal="general" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="3" numFmtId="1" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="11" fillId="2" fontId="3" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="5" fontId="11" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="13" fillId="0" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="12" fillId="0" fontId="1" numFmtId="170" xfId="0">
+      <alignment horizontal="right" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="5" fontId="12" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="0" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="5" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="2" fontId="3" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="6" fontId="14" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="14" fillId="2" fontId="3" numFmtId="165" xfId="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="15" fillId="2" fontId="3" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="5" fontId="13" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="2" fontId="3" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="2" fontId="3" numFmtId="167" xfId="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="14" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="10" fillId="0" fontId="1" numFmtId="170" xfId="0">
+      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="10" fillId="0" fontId="1" numFmtId="170" xfId="0">
+      <alignment horizontal="right" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="10" fillId="0" fontId="14" numFmtId="170" xfId="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="10" fillId="0" fontId="1" numFmtId="170" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="1" numFmtId="168" xfId="0">
-      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="6" fillId="2" fontId="3" numFmtId="1" xfId="0">
-      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="8" fillId="5" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="8" fillId="2" fontId="3" numFmtId="165" xfId="0">
-      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0">
-      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0">
-      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="1" numFmtId="165" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="1" numFmtId="168" xfId="0">
-      <alignment horizontal="right" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="7" numFmtId="168" xfId="0">
-      <alignment horizontal="right" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="1" numFmtId="168" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="3" fontId="7" numFmtId="168" xfId="0">
-      <alignment horizontal="right" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="9" fillId="0" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="10" fillId="2" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="11" fillId="0" fontId="7" numFmtId="167" xfId="0">
-      <alignment horizontal="right" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="10" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="11" fillId="0" fontId="1" numFmtId="168" xfId="0">
-      <alignment horizontal="right" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="5" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="13" fillId="2" fontId="3" numFmtId="1" xfId="0">
-      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="14" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="5" fontId="15" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="2" fontId="3" numFmtId="165" xfId="0">
-      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="9" fillId="0" fontId="1" numFmtId="168" xfId="0">
-      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="9" fillId="0" fontId="1" numFmtId="168" xfId="0">
-      <alignment horizontal="right" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="9" fillId="0" fontId="14" numFmtId="168" xfId="0">
-      <alignment horizontal="center" vertical="top" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="9" fillId="0" fontId="1" numFmtId="168" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="15" fillId="0" fontId="1" numFmtId="168" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="16" fillId="0" fontId="1" numFmtId="170" xfId="0">
       <alignment horizontal="right" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1006,19 +1219,19 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="A1:XFD1048576" activeCell="C1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.49609375" customHeight="true" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.28515625" customHeight="true" defaultRowHeight="11.25"/>
   <cols>
-    <col max="1" min="1" style="1" width="3.1640625" customWidth="true"/>
-    <col max="2" min="2" style="1" width="54.33203125" customWidth="true"/>
-    <col max="3" min="3" style="1" width="43.49609375" customWidth="true"/>
-    <col max="4" min="4" style="1" width="89.1640625" customWidth="true"/>
-    <col max="5" min="5" style="1" width="31.1640625" customWidth="true"/>
-    <col max="6" min="6" style="1" width="10.49609375" customWidth="true" bestFit="true"/>
-    <col max="7" min="7" style="1" width="24.33203125" customWidth="true"/>
-    <col max="16384" min="8" style="1" width="10.49609375" customWidth="true" bestFit="true"/>
+    <col max="1" min="1" style="1" width="2.42578125" customWidth="true"/>
+    <col max="2" min="2" style="1" width="42.85546875" customWidth="true"/>
+    <col max="3" min="3" style="1" width="34.28515625" customWidth="true"/>
+    <col max="4" min="4" style="1" width="70.42578125" customWidth="true"/>
+    <col max="5" min="5" style="1" width="24.5703125" customWidth="true"/>
+    <col max="6" min="6" style="1" width="8.28515625" customWidth="true"/>
+    <col max="7" min="7" style="1" width="19.140625" customWidth="true"/>
+    <col max="16384" min="8" style="1" width="8.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="true" ht="12.75">
@@ -1044,7 +1257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customHeight="true" ht="11.25">
+    <row r="2">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -1065,7 +1278,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" customHeight="true" ht="11.25">
+    <row r="3">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
@@ -1086,7 +1299,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" customHeight="true" ht="11.25">
+    <row r="4">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
@@ -1107,7 +1320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customHeight="true" ht="11.25">
+    <row r="5">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
@@ -1128,7 +1341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" customHeight="true" ht="11.25">
+    <row r="6">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
@@ -1147,7 +1360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" customHeight="true" ht="11.25">
+    <row r="7">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
@@ -1166,7 +1379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" customHeight="true" ht="11.25">
+    <row r="8">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
@@ -1189,7 +1402,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.393700778484344" top="0.393700778484344" right="0.393700778484344" bottom="0.393700778484344" header="0" footer="0"/>
-  <pageSetup orientation="portrait" fitToHeight="1" fitToWidth="1" pageOrder="overThenDown" cellComments="none"/>
+  <pageSetup orientation="portrait" fitToHeight="0" fitToWidth="0" paperWidth="8.49999606299213in" paperHeight="10.9999921259843in" cellComments="none"/>
 </worksheet>
 </file>
 
@@ -1201,32 +1414,32 @@
   </sheetPr>
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="A1:XFD1048576" activeCell="E1"/>
+    <sheetView workbookViewId="0" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.49609375" customHeight="true" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.28515625" customHeight="true" defaultRowHeight="11.25"/>
   <cols>
-    <col max="1" min="1" style="1" width="3.1640625" customWidth="true"/>
-    <col max="2" min="2" style="1" width="54.33203125" customWidth="true" hidden="true"/>
-    <col max="3" min="3" style="9" width="43.49609375" customWidth="true"/>
-    <col max="4" min="4" style="10" width="54.99609375" customWidth="true"/>
-    <col max="5" min="5" style="1" width="48.49609375" customWidth="true"/>
-    <col max="6" min="6" style="1" width="10.49609375" customWidth="true" bestFit="true"/>
-    <col max="7" min="7" style="11" width="17" customWidth="true"/>
-    <col max="8" min="8" style="1" width="24" customWidth="true"/>
-    <col max="9" min="9" style="1" width="10.49609375" customWidth="true" bestFit="true"/>
-    <col max="10" min="10" style="1" width="8" customWidth="true"/>
-    <col max="11" min="11" style="12" width="15.6640625" customWidth="true"/>
-    <col max="12" min="12" style="12" width="14.1640625" customWidth="true"/>
-    <col max="13" min="13" style="13" width="7.5" customWidth="true"/>
-    <col max="14" min="14" style="13" width="15.83203125" customWidth="true"/>
-    <col max="15" min="15" style="14" width="12.83203125" customWidth="true"/>
-    <col max="16" min="16" style="15" width="17.83203125" customWidth="true"/>
-    <col max="17" min="17" style="15" width="15.99609375" customWidth="true"/>
-    <col max="18" min="18" style="1" width="13.83203125" customWidth="true"/>
-    <col max="19" min="19" style="1" width="19" customWidth="true"/>
-    <col max="16384" min="20" style="1" width="10.49609375" customWidth="true" bestFit="true"/>
+    <col max="1" min="1" style="1" width="2.42578125" customWidth="true"/>
+    <col max="2" min="2" style="1" width="42.85546875" customWidth="true" hidden="true"/>
+    <col max="3" min="3" style="9" width="34.28515625" customWidth="true"/>
+    <col max="4" min="4" style="10" width="43.42578125" customWidth="true"/>
+    <col max="5" min="5" style="1" width="38.28515625" customWidth="true"/>
+    <col max="6" min="6" style="1" width="8.28515625" customWidth="true"/>
+    <col max="7" min="7" style="11" width="13.42578125" customWidth="true"/>
+    <col max="8" min="8" style="1" width="18.99609375" customWidth="true"/>
+    <col max="9" min="9" style="1" width="8.28515625" customWidth="true"/>
+    <col max="10" min="10" style="1" width="6.28515625" customWidth="true"/>
+    <col max="11" min="11" style="12" width="12.42578125" customWidth="true"/>
+    <col max="12" min="12" style="12" width="11.140625" customWidth="true"/>
+    <col max="13" min="13" style="13" width="5.85546875" customWidth="true"/>
+    <col max="14" min="14" style="13" width="12.42578125" customWidth="true"/>
+    <col max="15" min="15" style="14" width="10.140625" customWidth="true"/>
+    <col max="16" min="16" style="15" width="14.140625" customWidth="true"/>
+    <col max="17" min="17" style="15" width="12.5703125" customWidth="true"/>
+    <col max="18" min="18" style="1" width="10.85546875" customWidth="true"/>
+    <col max="19" min="19" style="1" width="15" customWidth="true"/>
+    <col max="16384" min="20" style="1" width="8.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="true" ht="36">
@@ -1256,55 +1469,55 @@
       <c r="G2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="28" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" ht="21.75">
-      <c r="A3" s="30" t="n">
+      <c r="A3" s="28" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="31" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="34" t="n">
+      <c r="G3" s="32" t="n">
         <v>157</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="35" t="n">
+      <c r="I3" s="33" t="n">
         <v>132</v>
       </c>
       <c r="J3" s="1" t="n">
@@ -1316,52 +1529,52 @@
       <c r="L3" s="15" t="str">
         <f>K3*G3</f>
       </c>
-      <c r="M3" s="36" t="n">
+      <c r="M3" s="34" t="n">
         <v>2.5</v>
       </c>
-      <c r="N3" s="36" t="str">
+      <c r="N3" s="34" t="str">
         <f>M3*K3</f>
       </c>
       <c r="O3" s="15" t="str">
         <f>ROUNDUP(N3,2)</f>
       </c>
-      <c r="P3" s="37" t="str">
+      <c r="P3" s="35" t="str">
         <f>O3</f>
       </c>
-      <c r="Q3" s="37" t="str">
+      <c r="Q3" s="35" t="str">
         <f>P3*G3</f>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="39"/>
+      <c r="S3" s="37"/>
     </row>
     <row r="4" ht="21.75">
-      <c r="A4" s="30" t="n">
+      <c r="A4" s="28" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="31" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="34" t="n">
+      <c r="G4" s="32" t="n">
         <v>233</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="35" t="n">
+      <c r="I4" s="33" t="n">
         <v>35</v>
       </c>
       <c r="J4" s="1" t="n">
@@ -1373,46 +1586,46 @@
       <c r="L4" s="15" t="str">
         <f>K4*G4</f>
       </c>
-      <c r="M4" s="36" t="n">
+      <c r="M4" s="34" t="n">
         <v>2.1</v>
       </c>
-      <c r="N4" s="36" t="str">
+      <c r="N4" s="34" t="str">
         <f>M4*K4</f>
       </c>
       <c r="O4" s="15" t="str">
         <f>ROUNDUP(N4,2)</f>
       </c>
-      <c r="P4" s="37" t="str">
+      <c r="P4" s="35" t="str">
         <f>O4</f>
       </c>
-      <c r="Q4" s="37" t="str">
+      <c r="Q4" s="35" t="str">
         <f>P4*G4</f>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="39"/>
+      <c r="S4" s="37"/>
     </row>
     <row r="5" ht="11.25">
-      <c r="A5" s="30" t="n">
+      <c r="A5" s="28" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="34" t="n">
+      <c r="G5" s="32" t="n">
         <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1430,46 +1643,46 @@
       <c r="L5" s="15" t="str">
         <f>K5*G5</f>
       </c>
-      <c r="M5" s="36" t="n">
+      <c r="M5" s="34" t="n">
         <v>1.3</v>
       </c>
-      <c r="N5" s="36" t="str">
+      <c r="N5" s="34" t="str">
         <f>M5*K5</f>
       </c>
       <c r="O5" s="15" t="str">
         <f>ROUNDUP(N5,2)</f>
       </c>
-      <c r="P5" s="37" t="str">
+      <c r="P5" s="35" t="str">
         <f>O5</f>
       </c>
-      <c r="Q5" s="37" t="str">
+      <c r="Q5" s="35" t="str">
         <f>P5*G5</f>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="R5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="39"/>
+      <c r="S5" s="37"/>
     </row>
     <row r="6" ht="11.25">
-      <c r="A6" s="30" t="n">
+      <c r="A6" s="28" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="31" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="34" t="n">
+      <c r="G6" s="32" t="n">
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1487,50 +1700,50 @@
       <c r="L6" s="15" t="str">
         <f>K6*G6</f>
       </c>
-      <c r="M6" s="36" t="n">
+      <c r="M6" s="34" t="n">
         <v>1.3</v>
       </c>
-      <c r="N6" s="36" t="str">
+      <c r="N6" s="34" t="str">
         <f>M6*K6</f>
       </c>
       <c r="O6" s="15" t="str">
         <f>ROUNDUP(N6,2)</f>
       </c>
-      <c r="P6" s="37" t="str">
+      <c r="P6" s="35" t="str">
         <f>O6</f>
       </c>
-      <c r="Q6" s="37" t="str">
+      <c r="Q6" s="35" t="str">
         <f>P6*G6</f>
       </c>
-      <c r="R6" s="38" t="s">
+      <c r="R6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="39"/>
+      <c r="S6" s="37"/>
     </row>
     <row r="7" ht="11.25">
-      <c r="A7" s="30" t="n">
+      <c r="A7" s="28" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="31" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="34" t="n">
+      <c r="G7" s="32" t="n">
         <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="35" t="n">
+      <c r="I7" s="33" t="n">
         <v>89</v>
       </c>
       <c r="J7" s="1" t="n">
@@ -1542,50 +1755,50 @@
       <c r="L7" s="15" t="str">
         <f>K7*G7</f>
       </c>
-      <c r="M7" s="36" t="n">
+      <c r="M7" s="34" t="n">
         <v>2.1</v>
       </c>
-      <c r="N7" s="36" t="str">
+      <c r="N7" s="34" t="str">
         <f>M7*K7</f>
       </c>
       <c r="O7" s="15" t="str">
         <f>ROUNDUP(N7,2)</f>
       </c>
-      <c r="P7" s="37" t="str">
+      <c r="P7" s="35" t="str">
         <f>O7</f>
       </c>
-      <c r="Q7" s="37" t="str">
+      <c r="Q7" s="35" t="str">
         <f>P7*G7</f>
       </c>
-      <c r="R7" s="38" t="s">
+      <c r="R7" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="39"/>
+      <c r="S7" s="37"/>
     </row>
     <row r="8" ht="11.25">
-      <c r="A8" s="30" t="n">
+      <c r="A8" s="28" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="31" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="34" t="n">
+      <c r="G8" s="32" t="n">
         <v>28</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="35" t="n">
+      <c r="I8" s="33" t="n">
         <v>285</v>
       </c>
       <c r="J8" s="1" t="n">
@@ -1597,105 +1810,105 @@
       <c r="L8" s="15" t="str">
         <f>K8*G8</f>
       </c>
-      <c r="M8" s="36" t="n">
+      <c r="M8" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="N8" s="36" t="str">
+      <c r="N8" s="34" t="str">
         <f>M8*K8</f>
       </c>
       <c r="O8" s="15" t="str">
         <f>ROUNDUP(N8,2)</f>
       </c>
-      <c r="P8" s="37" t="str">
+      <c r="P8" s="35" t="str">
         <f>O8</f>
       </c>
-      <c r="Q8" s="37" t="str">
+      <c r="Q8" s="35" t="str">
         <f>P8*G8</f>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="39"/>
-    </row>
-    <row r="9" customHeight="true" ht="38.25" customFormat="true" s="41">
-      <c r="A9" s="42" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="44" t="s">
+      <c r="S8" s="37"/>
+    </row>
+    <row r="9" customHeight="true" ht="38.25" customFormat="true" s="38">
+      <c r="A9" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="48" t="n">
+      <c r="G9" s="45" t="n">
         <v>1</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="49" t="str">
+      <c r="K9" s="46" t="str">
         <f>J9*I9</f>
       </c>
       <c r="L9" s="15" t="str">
         <f>K9*G9</f>
       </c>
-      <c r="M9" s="50" t="n">
+      <c r="M9" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="N9" s="36" t="str">
+      <c r="N9" s="34" t="str">
         <f>M9*K9</f>
       </c>
       <c r="O9" s="15" t="str">
         <f>ROUNDUP(N9,2)</f>
       </c>
-      <c r="P9" s="37" t="str">
+      <c r="P9" s="35" t="str">
         <f>O9</f>
       </c>
-      <c r="Q9" s="37" t="str">
+      <c r="Q9" s="35" t="str">
         <f>P9*G9</f>
       </c>
-      <c r="R9" s="38"/>
-      <c r="S9" s="51" t="s">
+      <c r="R9" s="36"/>
+      <c r="S9" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" customHeight="true" ht="30.75">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="52" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="59" t="str">
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="55" t="str">
         <f>SUM(Q3:Q9)</f>
       </c>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.699999988079071" top="0.75" right="0.699999988079071" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" fitToHeight="1" fitToWidth="1" paperSize="9" cellComments="none"/>
+  <pageSetup orientation="portrait" fitToHeight="0" fitToWidth="0" paperWidth="8.26771653543307in" paperHeight="11.6929133858268in" cellComments="none"/>
 </worksheet>
 </file>
 
@@ -1708,31 +1921,31 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="A1:XFD1048576" activeCell="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.49609375" customHeight="true" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.28515625" customHeight="true" defaultRowHeight="11.25"/>
   <cols>
-    <col max="1" min="1" style="1" width="3.1640625" customWidth="true"/>
-    <col max="2" min="2" style="1" width="54.33203125" customWidth="true" hidden="true"/>
-    <col max="3" min="3" style="9" width="43.49609375" customWidth="true"/>
-    <col max="4" min="4" style="10" width="54.99609375" customWidth="true"/>
-    <col max="5" min="5" style="1" width="48.49609375" customWidth="true"/>
-    <col max="6" min="6" style="1" width="10.49609375" customWidth="true" bestFit="true"/>
-    <col max="7" min="7" style="11" width="17" customWidth="true"/>
-    <col max="8" min="8" style="1" width="24" customWidth="true" hidden="true"/>
-    <col max="9" min="9" style="1" width="0" customWidth="true" hidden="true"/>
-    <col max="10" min="10" style="1" width="8" customWidth="true" hidden="true"/>
-    <col max="11" min="11" style="12" width="15.6640625" customWidth="true" hidden="true"/>
-    <col max="12" min="12" style="12" width="14.1640625" customWidth="true" hidden="true"/>
-    <col max="13" min="13" style="13" width="7.5" customWidth="true" hidden="true"/>
-    <col max="14" min="14" style="13" width="15.83203125" customWidth="true" hidden="true"/>
-    <col max="15" min="15" style="14" width="12.83203125" customWidth="true" hidden="true"/>
-    <col max="16" min="16" style="15" width="17.83203125" customWidth="true"/>
-    <col max="17" min="17" style="15" width="15.99609375" customWidth="true"/>
-    <col max="18" min="18" style="1" width="13.83203125" customWidth="true"/>
-    <col max="19" min="19" style="1" width="19" customWidth="true"/>
-    <col max="16384" min="20" style="1" width="10.49609375" customWidth="true" bestFit="true"/>
+    <col max="1" min="1" style="1" width="2.42578125" customWidth="true"/>
+    <col max="2" min="2" style="1" width="42.85546875" customWidth="true" hidden="true"/>
+    <col max="3" min="3" style="9" width="34.28515625" customWidth="true"/>
+    <col max="4" min="4" style="10" width="43.42578125" customWidth="true"/>
+    <col max="5" min="5" style="1" width="38.28515625" customWidth="true"/>
+    <col max="6" min="6" style="1" width="8.28515625" customWidth="true"/>
+    <col max="7" min="7" style="11" width="13.42578125" customWidth="true"/>
+    <col max="8" min="8" style="1" width="18.99609375" customWidth="true" hidden="true"/>
+    <col max="9" min="9" style="1" width="8.28515625" customWidth="true" hidden="true"/>
+    <col max="10" min="10" style="1" width="6.28515625" customWidth="true" hidden="true"/>
+    <col max="11" min="11" style="12" width="12.42578125" customWidth="true" hidden="true"/>
+    <col max="12" min="12" style="12" width="11.140625" customWidth="true" hidden="true"/>
+    <col max="13" min="13" style="13" width="5.85546875" customWidth="true" hidden="true"/>
+    <col max="14" min="14" style="13" width="12.42578125" customWidth="true" hidden="true"/>
+    <col max="15" min="15" style="14" width="10.140625" customWidth="true" hidden="true"/>
+    <col max="16" min="16" style="15" width="14.140625" customWidth="true"/>
+    <col max="17" min="17" style="15" width="12.5703125" customWidth="true"/>
+    <col max="18" min="18" style="1" width="10.85546875" customWidth="true"/>
+    <col max="19" min="19" style="1" width="15" customWidth="true"/>
+    <col max="16384" min="20" style="1" width="8.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="true" ht="36">
@@ -1762,55 +1975,55 @@
       <c r="G2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="28" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" ht="21.75">
-      <c r="A3" s="30" t="n">
+      <c r="A3" s="28" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="31" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="34" t="n">
+      <c r="G3" s="32" t="n">
         <v>157</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="35" t="n">
+      <c r="I3" s="33" t="n">
         <v>132</v>
       </c>
       <c r="J3" s="1" t="n">
@@ -1822,52 +2035,52 @@
       <c r="L3" s="15" t="str">
         <f>K3*G3</f>
       </c>
-      <c r="M3" s="36" t="n">
+      <c r="M3" s="34" t="n">
         <v>2.5</v>
       </c>
-      <c r="N3" s="36" t="str">
+      <c r="N3" s="34" t="str">
         <f>M3*K3</f>
       </c>
       <c r="O3" s="15" t="str">
         <f>ROUNDUP(N3,2)</f>
       </c>
-      <c r="P3" s="37" t="str">
+      <c r="P3" s="35" t="str">
         <f>O3</f>
       </c>
-      <c r="Q3" s="37" t="str">
+      <c r="Q3" s="35" t="str">
         <f>P3*G3</f>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="39"/>
+      <c r="S3" s="37"/>
     </row>
     <row r="4" ht="21.75">
-      <c r="A4" s="30" t="n">
+      <c r="A4" s="28" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="31" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="34" t="n">
+      <c r="G4" s="32" t="n">
         <v>233</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="35" t="n">
+      <c r="I4" s="33" t="n">
         <v>35</v>
       </c>
       <c r="J4" s="1" t="n">
@@ -1879,46 +2092,46 @@
       <c r="L4" s="15" t="str">
         <f>K4*G4</f>
       </c>
-      <c r="M4" s="36" t="n">
+      <c r="M4" s="34" t="n">
         <v>2.1</v>
       </c>
-      <c r="N4" s="36" t="str">
+      <c r="N4" s="34" t="str">
         <f>M4*K4</f>
       </c>
       <c r="O4" s="15" t="str">
         <f>ROUNDUP(N4,2)</f>
       </c>
-      <c r="P4" s="37" t="str">
+      <c r="P4" s="35" t="str">
         <f>O4</f>
       </c>
-      <c r="Q4" s="37" t="str">
+      <c r="Q4" s="35" t="str">
         <f>P4*G4</f>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="39"/>
+      <c r="S4" s="37"/>
     </row>
     <row r="5" ht="11.25">
-      <c r="A5" s="30" t="n">
+      <c r="A5" s="28" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="34" t="n">
+      <c r="G5" s="32" t="n">
         <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1936,46 +2149,46 @@
       <c r="L5" s="15" t="str">
         <f>K5*G5</f>
       </c>
-      <c r="M5" s="36" t="n">
+      <c r="M5" s="34" t="n">
         <v>1.3</v>
       </c>
-      <c r="N5" s="36" t="str">
+      <c r="N5" s="34" t="str">
         <f>M5*K5</f>
       </c>
       <c r="O5" s="15" t="str">
         <f>ROUNDUP(N5,2)</f>
       </c>
-      <c r="P5" s="37" t="str">
+      <c r="P5" s="35" t="str">
         <f>O5</f>
       </c>
-      <c r="Q5" s="37" t="str">
+      <c r="Q5" s="35" t="str">
         <f>P5*G5</f>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="R5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="39"/>
+      <c r="S5" s="37"/>
     </row>
     <row r="6" ht="11.25">
-      <c r="A6" s="30" t="n">
+      <c r="A6" s="28" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="31" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="34" t="n">
+      <c r="G6" s="32" t="n">
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1993,50 +2206,50 @@
       <c r="L6" s="15" t="str">
         <f>K6*G6</f>
       </c>
-      <c r="M6" s="36" t="n">
+      <c r="M6" s="34" t="n">
         <v>1.3</v>
       </c>
-      <c r="N6" s="36" t="str">
+      <c r="N6" s="34" t="str">
         <f>M6*K6</f>
       </c>
       <c r="O6" s="15" t="str">
         <f>ROUNDUP(N6,2)</f>
       </c>
-      <c r="P6" s="37" t="str">
+      <c r="P6" s="35" t="str">
         <f>O6</f>
       </c>
-      <c r="Q6" s="37" t="str">
+      <c r="Q6" s="35" t="str">
         <f>P6*G6</f>
       </c>
-      <c r="R6" s="38" t="s">
+      <c r="R6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="39"/>
+      <c r="S6" s="37"/>
     </row>
     <row r="7" ht="11.25">
-      <c r="A7" s="30" t="n">
+      <c r="A7" s="28" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="31" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="34" t="n">
+      <c r="G7" s="32" t="n">
         <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="35" t="n">
+      <c r="I7" s="33" t="n">
         <v>89</v>
       </c>
       <c r="J7" s="1" t="n">
@@ -2048,50 +2261,50 @@
       <c r="L7" s="15" t="str">
         <f>K7*G7</f>
       </c>
-      <c r="M7" s="36" t="n">
+      <c r="M7" s="34" t="n">
         <v>2.1</v>
       </c>
-      <c r="N7" s="36" t="str">
+      <c r="N7" s="34" t="str">
         <f>M7*K7</f>
       </c>
       <c r="O7" s="15" t="str">
         <f>ROUNDUP(N7,2)</f>
       </c>
-      <c r="P7" s="37" t="str">
+      <c r="P7" s="35" t="str">
         <f>O7</f>
       </c>
-      <c r="Q7" s="37" t="str">
+      <c r="Q7" s="35" t="str">
         <f>P7*G7</f>
       </c>
-      <c r="R7" s="38" t="s">
+      <c r="R7" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="39"/>
+      <c r="S7" s="37"/>
     </row>
     <row r="8" ht="11.25">
-      <c r="A8" s="30" t="n">
+      <c r="A8" s="28" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="31" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="34" t="n">
+      <c r="G8" s="32" t="n">
         <v>28</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="35" t="n">
+      <c r="I8" s="33" t="n">
         <v>285</v>
       </c>
       <c r="J8" s="1" t="n">
@@ -2103,105 +2316,105 @@
       <c r="L8" s="15" t="str">
         <f>K8*G8</f>
       </c>
-      <c r="M8" s="36" t="n">
+      <c r="M8" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="N8" s="36" t="str">
+      <c r="N8" s="34" t="str">
         <f>M8*K8</f>
       </c>
       <c r="O8" s="15" t="str">
         <f>ROUNDUP(N8,2)</f>
       </c>
-      <c r="P8" s="37" t="str">
+      <c r="P8" s="35" t="str">
         <f>O8</f>
       </c>
-      <c r="Q8" s="37" t="str">
+      <c r="Q8" s="35" t="str">
         <f>P8*G8</f>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="39"/>
-    </row>
-    <row r="9" customHeight="true" ht="38.25" customFormat="true" s="41">
-      <c r="A9" s="42" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="44" t="s">
+      <c r="S8" s="37"/>
+    </row>
+    <row r="9" customHeight="true" ht="38.25" customFormat="true" s="38">
+      <c r="A9" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="48" t="n">
+      <c r="G9" s="45" t="n">
         <v>1</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="49" t="str">
+      <c r="K9" s="46" t="str">
         <f>J9*I9</f>
       </c>
       <c r="L9" s="15" t="str">
         <f>K9*G9</f>
       </c>
-      <c r="M9" s="50" t="n">
+      <c r="M9" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="N9" s="36" t="str">
+      <c r="N9" s="34" t="str">
         <f>M9*K9</f>
       </c>
       <c r="O9" s="15" t="str">
         <f>ROUNDUP(N9,2)</f>
       </c>
-      <c r="P9" s="37" t="str">
+      <c r="P9" s="35" t="str">
         <f>O9</f>
       </c>
-      <c r="Q9" s="37" t="str">
+      <c r="Q9" s="35" t="str">
         <f>P9*G9</f>
       </c>
-      <c r="R9" s="38"/>
-      <c r="S9" s="51" t="s">
+      <c r="R9" s="36"/>
+      <c r="S9" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" customHeight="true" ht="30.75">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="52" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="59" t="str">
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="55" t="str">
         <f>SUM(Q3:Q9)</f>
       </c>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.699999988079071" top="0.75" right="0.699999988079071" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1" paperSize="8" cellComments="none"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1" paperWidth="11.6929133858268in" paperHeight="16.5354330708661in" cellComments="none"/>
 </worksheet>
 </file>
 
@@ -2209,32 +2422,33 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
+    <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
       <selection sqref="C1" activeCell="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.1640625" customHeight="true" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.140625" customHeight="true" defaultRowHeight="15"/>
   <cols>
-    <col max="1" min="1" style="0" width="3.1640625" customWidth="true"/>
-    <col max="2" min="2" style="0" width="0" customWidth="true"/>
-    <col max="3" min="3" style="0" width="43.49609375" customWidth="true"/>
-    <col max="4" min="4" style="0" width="54.99609375" customWidth="true"/>
-    <col max="5" min="5" style="0" width="48.49609375" customWidth="true"/>
-    <col max="6" min="6" style="0" width="10.49609375" customWidth="true"/>
-    <col max="7" min="7" style="0" width="17" customWidth="true"/>
-    <col max="14" min="8" style="0" width="14.1640625"/>
-    <col max="15" min="15" style="0" width="29.6640625" customWidth="true"/>
-    <col max="16" min="16" style="0" width="17.83203125" customWidth="true"/>
-    <col max="17" min="17" style="0" width="15.99609375" customWidth="true"/>
-    <col max="18" min="18" style="0" width="13.83203125" customWidth="true"/>
-    <col max="19" min="19" style="0" width="19" customWidth="true"/>
+    <col max="1" min="1" style="56" width="2.42578125" customWidth="true"/>
+    <col max="2" min="2" style="56" width="11.140625" customWidth="true" hidden="true"/>
+    <col max="3" min="3" style="56" width="34.28515625" customWidth="true"/>
+    <col max="4" min="4" style="56" width="43.42578125" customWidth="true"/>
+    <col max="5" min="5" style="56" width="38.99609375" customWidth="true"/>
+    <col max="6" min="6" style="56" width="8.28515625" customWidth="true"/>
+    <col max="7" min="7" style="56" width="13.42578125" customWidth="true"/>
+    <col max="14" min="8" style="56" width="11.140625" customWidth="true" hidden="true"/>
+    <col max="15" min="15" style="56" width="23.42578125" customWidth="true" hidden="true"/>
+    <col max="16" min="16" style="56" width="14.140625" customWidth="true"/>
+    <col max="17" min="17" style="56" width="12.5703125" customWidth="true"/>
+    <col max="18" min="18" style="56" width="10.85546875" customWidth="true"/>
+    <col max="19" min="19" style="56" width="15" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
-      <c r="C1" s="60" t="s">
+    <row r="1" customHeight="true" ht="22.5">
+      <c r="C1" s="57" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2242,7 +2456,7 @@
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -2260,55 +2474,55 @@
       <c r="G2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="28" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="21.75">
-      <c r="A3" s="30" t="n">
+    <row r="3" customHeight="true" ht="24">
+      <c r="A3" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>8</v>
+      <c r="E3" s="61" t="s">
+        <v>44</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="34" t="n">
+      <c r="G3" s="32" t="n">
         <v>157</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="35" t="n">
+      <c r="I3" s="33" t="n">
         <v>132</v>
       </c>
       <c r="J3" s="1" t="n">
@@ -2320,52 +2534,52 @@
       <c r="L3" s="15" t="str">
         <f>K3*G3</f>
       </c>
-      <c r="M3" s="36" t="n">
+      <c r="M3" s="34" t="n">
         <v>2.5</v>
       </c>
-      <c r="N3" s="36" t="str">
+      <c r="N3" s="34" t="str">
         <f>M3*K3</f>
       </c>
-      <c r="O3" s="65" t="str">
+      <c r="O3" s="63" t="str">
         <f>ROUNDUP(N3,2)</f>
       </c>
-      <c r="P3" s="37" t="str">
+      <c r="P3" s="35" t="str">
         <f>O3</f>
       </c>
-      <c r="Q3" s="37" t="str">
+      <c r="Q3" s="35" t="str">
         <f>P3*G3</f>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="39"/>
-    </row>
-    <row r="4" ht="21.75">
-      <c r="A4" s="30" t="n">
+      <c r="S3" s="37"/>
+    </row>
+    <row r="4" customHeight="true" ht="21.75">
+      <c r="A4" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>8</v>
+      <c r="E4" s="61" t="s">
+        <v>44</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="34" t="n">
+      <c r="G4" s="32" t="n">
         <v>233</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="35" t="n">
+      <c r="I4" s="33" t="n">
         <v>132</v>
       </c>
       <c r="J4" s="1" t="n">
@@ -2377,49 +2591,49 @@
       <c r="L4" s="15" t="str">
         <f>K4*G4</f>
       </c>
-      <c r="M4" s="36" t="n">
+      <c r="M4" s="34" t="n">
         <v>2.5</v>
       </c>
-      <c r="N4" s="36" t="str">
+      <c r="N4" s="34" t="str">
         <f>M4*K4</f>
       </c>
-      <c r="O4" s="65" t="str">
+      <c r="O4" s="63" t="str">
         <f>ROUNDUP(N4,2)</f>
       </c>
-      <c r="P4" s="37" t="str">
+      <c r="P4" s="35" t="str">
         <f>O4</f>
       </c>
-      <c r="Q4" s="37" t="str">
+      <c r="Q4" s="35" t="str">
         <f>P4*G4</f>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="39"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="30" t="n">
+      <c r="S4" s="37"/>
+    </row>
+    <row r="5" customHeight="true" ht="21.75">
+      <c r="A5" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="66" t="s">
-        <v>33</v>
+      <c r="E5" s="64" t="s">
+        <v>45</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="34" t="n">
+      <c r="G5" s="32" t="n">
         <v>26</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="62" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -2434,49 +2648,49 @@
       <c r="L5" s="15" t="str">
         <f>K5*G5</f>
       </c>
-      <c r="M5" s="36" t="n">
+      <c r="M5" s="34" t="n">
         <v>1.5</v>
       </c>
-      <c r="N5" s="36" t="str">
+      <c r="N5" s="34" t="str">
         <f>M5*K5</f>
       </c>
-      <c r="O5" s="65" t="str">
+      <c r="O5" s="63" t="str">
         <f>ROUNDUP(N5,2)</f>
       </c>
-      <c r="P5" s="37" t="str">
+      <c r="P5" s="35" t="str">
         <f>O5</f>
       </c>
-      <c r="Q5" s="37" t="str">
+      <c r="Q5" s="35" t="str">
         <f>P5*G5</f>
       </c>
-      <c r="R5" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="39"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="30" t="n">
+      <c r="R5" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="37"/>
+    </row>
+    <row r="6" customHeight="true" ht="21.75">
+      <c r="A6" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="66" t="s">
-        <v>33</v>
+      <c r="E6" s="64" t="s">
+        <v>45</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="34" t="n">
+      <c r="G6" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="62" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="1" t="n">
@@ -2491,50 +2705,50 @@
       <c r="L6" s="15" t="str">
         <f>K6*G6</f>
       </c>
-      <c r="M6" s="36" t="n">
+      <c r="M6" s="34" t="n">
         <v>1.5</v>
       </c>
-      <c r="N6" s="36" t="str">
+      <c r="N6" s="34" t="str">
         <f>M6*K6</f>
       </c>
-      <c r="O6" s="65" t="str">
+      <c r="O6" s="63" t="str">
         <f>ROUNDUP(N6,2)</f>
       </c>
-      <c r="P6" s="37" t="str">
+      <c r="P6" s="35" t="str">
         <f>O6</f>
       </c>
-      <c r="Q6" s="37" t="str">
+      <c r="Q6" s="35" t="str">
         <f>P6*G6</f>
       </c>
-      <c r="R6" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="39"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="30" t="n">
+      <c r="R6" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="37"/>
+    </row>
+    <row r="7" customHeight="true" ht="21.75">
+      <c r="A7" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33" t="s">
-        <v>16</v>
+      <c r="D7" s="30"/>
+      <c r="E7" s="61" t="s">
+        <v>47</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="34" t="n">
+      <c r="G7" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="35" t="n">
+      <c r="I7" s="33" t="n">
         <v>89</v>
       </c>
       <c r="J7" s="1" t="n">
@@ -2546,50 +2760,50 @@
       <c r="L7" s="15" t="str">
         <f>K7*G7</f>
       </c>
-      <c r="M7" s="36" t="n">
+      <c r="M7" s="34" t="n">
         <v>2.1</v>
       </c>
-      <c r="N7" s="36" t="str">
+      <c r="N7" s="34" t="str">
         <f>M7*K7</f>
       </c>
-      <c r="O7" s="65" t="str">
+      <c r="O7" s="63" t="str">
         <f>ROUNDUP(N7,2)</f>
       </c>
-      <c r="P7" s="37" t="str">
+      <c r="P7" s="35" t="str">
         <f>O7</f>
       </c>
-      <c r="Q7" s="37" t="str">
+      <c r="Q7" s="35" t="str">
         <f>P7*G7</f>
       </c>
-      <c r="R7" s="38" t="s">
+      <c r="R7" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="39"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="30" t="n">
+      <c r="S7" s="37"/>
+    </row>
+    <row r="8" customHeight="true" ht="21.75">
+      <c r="A8" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33" t="s">
-        <v>46</v>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="34" t="n">
+      <c r="G8" s="32" t="n">
         <v>28</v>
       </c>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="69" t="n">
+      <c r="I8" s="66" t="n">
         <v>335</v>
       </c>
       <c r="J8" s="1" t="n">
@@ -2601,116 +2815,116 @@
       <c r="L8" s="15" t="str">
         <f>K8*G8</f>
       </c>
-      <c r="M8" s="36" t="n">
+      <c r="M8" s="34" t="n">
         <v>2.1</v>
       </c>
-      <c r="N8" s="36" t="str">
+      <c r="N8" s="34" t="str">
         <f>M8*K8</f>
       </c>
-      <c r="O8" s="65" t="str">
+      <c r="O8" s="63" t="str">
         <f>ROUNDUP(N8,2)</f>
       </c>
-      <c r="P8" s="37" t="str">
+      <c r="P8" s="35" t="str">
         <f>O8</f>
       </c>
-      <c r="Q8" s="37" t="str">
+      <c r="Q8" s="35" t="str">
         <f>P8*G8</f>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="39"/>
-    </row>
-    <row r="9" ht="70.5">
-      <c r="A9" s="70" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="31" t="s">
+      <c r="S8" s="37"/>
+    </row>
+    <row r="9" customHeight="true" ht="111">
+      <c r="A9" s="67" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="73" t="s">
+      <c r="E9" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="74" t="n">
+      <c r="G9" s="71" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="75" t="n">
+      <c r="I9" s="72" t="n">
         <v>2345</v>
       </c>
-      <c r="J9" s="76" t="n">
+      <c r="J9" s="73" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="77" t="str">
+      <c r="K9" s="74" t="str">
         <f>J9*I9</f>
       </c>
-      <c r="L9" s="78" t="str">
+      <c r="L9" s="75" t="str">
         <f>K9*G9</f>
       </c>
-      <c r="M9" s="79" t="n">
+      <c r="M9" s="76" t="n">
         <v>3</v>
       </c>
-      <c r="N9" s="80" t="str">
+      <c r="N9" s="77" t="str">
         <f>M9*K9</f>
       </c>
-      <c r="O9" s="81" t="str">
+      <c r="O9" s="78" t="str">
         <f>ROUNDUP(N9,2)</f>
       </c>
-      <c r="P9" s="37" t="str">
+      <c r="P9" s="35" t="str">
         <f>O9</f>
       </c>
-      <c r="Q9" s="37" t="str">
+      <c r="Q9" s="35" t="str">
         <f>P9*G9</f>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="51"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="52" t="s">
+      <c r="S9" s="48"/>
+    </row>
+    <row r="10" customHeight="true" ht="24.75">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="59" t="str">
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="55" t="str">
         <f>SUM(Q3:Q9)</f>
       </c>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
     </row>
     <row r="12">
-      <c r="L12" s="0" t="str">
+      <c r="L12" s="56" t="str">
         <f>SUM(L3:L9)</f>
       </c>
     </row>
     <row r="15">
-      <c r="L15" s="0" t="str">
+      <c r="L15" s="56" t="str">
         <f>Q10-L12</f>
       </c>
     </row>
   </sheetData>
-  <pageSetup orientation="default" fitToHeight="0" fitToWidth="0" cellComments="none"/>
+  <pageSetup orientation="portrait" fitToHeight="0" fitToWidth="0" paperWidth="8.49999606299213in" paperHeight="10.9999921259843in" cellComments="none"/>
 </worksheet>
 </file>